--- a/poc_app/demo/autozone_attributes.xlsx
+++ b/poc_app/demo/autozone_attributes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="31">
   <si>
     <t xml:space="preserve">retailer</t>
   </si>
@@ -31,28 +31,88 @@
     <t xml:space="preserve">attribute</t>
   </si>
   <si>
+    <t xml:space="preserve">Advance Auto Parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price_tier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight_tier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_size_tier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amperage_tier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cold_cranking_amperage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reserve_capacity_tier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery Chargers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_warranty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump Starters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spark Plugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thread_diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ground_electrode_core_material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">center_electrode_core_material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resistor_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seat_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ground_electrode_tip_design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiper Blades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blade_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blade_size_tier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blade_material</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amazon</t>
   </si>
   <si>
-    <t xml:space="preserve">Battery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price_tier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weight_tier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_size_tier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amperage_tier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">voltage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced Auto</t>
+    <t xml:space="preserve">Filters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump Sarters</t>
   </si>
 </sst>
 </file>
@@ -67,6 +127,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -126,9 +187,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -148,10 +217,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7:A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -227,43 +296,43 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>6</v>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>8</v>
@@ -271,13 +340,475 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/poc_app/demo/autozone_attributes.xlsx
+++ b/poc_app/demo/autozone_attributes.xlsx
@@ -58,6 +58,9 @@
     <t xml:space="preserve">reserve_capacity_tier</t>
   </si>
   <si>
+    <t xml:space="preserve">group_size</t>
+  </si>
+  <si>
     <t xml:space="preserve">Battery Chargers</t>
   </si>
   <si>
@@ -110,9 +113,6 @@
   </si>
   <si>
     <t xml:space="preserve">Filters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump Sarters</t>
   </si>
 </sst>
 </file>
@@ -219,8 +219,8 @@
   </sheetPr>
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -321,10 +321,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -332,10 +332,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,10 +343,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -354,10 +354,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -365,10 +365,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,10 +376,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -387,10 +387,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -401,7 +401,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -409,10 +409,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -420,10 +420,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -431,10 +431,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -442,7 +442,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>5</v>
@@ -453,10 +453,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -464,10 +464,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -475,10 +475,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,10 +486,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -497,10 +497,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -508,10 +508,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -519,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>5</v>
@@ -530,10 +530,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -541,10 +541,10 @@
         <v>3</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -552,10 +552,10 @@
         <v>3</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -563,15 +563,15 @@
         <v>3</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>4</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>4</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>4</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>4</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>4</v>
@@ -626,10 +626,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>5</v>
@@ -637,10 +637,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>8</v>
@@ -648,10 +648,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>5</v>
@@ -659,10 +659,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>7</v>
@@ -670,10 +670,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>6</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>5</v>
@@ -692,10 +692,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>8</v>
@@ -703,10 +703,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>9</v>
@@ -714,10 +714,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>5</v>
@@ -725,10 +725,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>8</v>
@@ -736,21 +736,21 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>5</v>
@@ -758,10 +758,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>7</v>
@@ -769,10 +769,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>5</v>
@@ -791,24 +791,24 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
